--- a/NformTester/NformTester/Keywordscripts/900.10.030_LargeNumberOfDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.030_LargeNumberOfDevices.xlsx
@@ -4171,10 +4171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.83.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4183,8 +4179,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.83.102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>$SNMP_SearchStart$</t>
+  </si>
+  <si>
+    <t>$SNMP_SearchEnd$</t>
   </si>
 </sst>
 </file>
@@ -4230,6 +4228,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4734,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4928,7 +4927,7 @@
         <v>910</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>931</v>
@@ -4949,10 +4948,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>929</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>930</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
